--- a/pred_ohlcv/54_21/2020-01-24 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-376625.29650478</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-413388.50500478</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-427556.11770478</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-437680.92710478</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-446242.39420478</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-491316.53520478</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-449728.59790478</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-449738.50450478</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-454233.80330478</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-455241.50330478</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-455241.50330478</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-441412.47100478</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-493765.90240478</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-580384.7457658199</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-580384.7457658199</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-580340.2426658199</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-581587.3914658199</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-581173.1825658199</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-581173.1825658199</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-582623.9543658199</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-601148.3986658199</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-629239.9794658199</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-629239.9794658199</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-631316.4581658199</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-631316.4581658199</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-631393.3670658199</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-631331.19426582</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-640013.53066582</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-640013.53066582</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-520062.53066582</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-516825.90816582</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-545211.44346582</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-587314.13426582</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-587314.13426582</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-593229.86811705</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-594547.86811705</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-597199.0353170501</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-597199.0353170501</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-597437.9190170501</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-385340.5457170501</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-419686.0042170502</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-379923.8417170502</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-286825.8576170502</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-400549.6090170502</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-544010.3327170502</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-509599.7887053302</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-516367.1187053302</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-514292.0423053302</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-539907.3138053302</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-651152.5613053301</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1172783.70821948</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1175234.05471948</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1154256.99490126</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1153690.99490126</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1130599.57930126</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1127782.172301261</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1127957.002201261</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1119601.660201261</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1121757.220601261</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1103286.093601261</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1108953.563601261</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1102911.019401261</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1104170.019401261</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1120992.620401261</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1107435.120401261</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1129411.783001261</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1128902.114401261</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1157668.762201261</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1147888.18220126</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1150308.65300126</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1100148.304001261</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1105122.896801261</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1127378.119801261</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1132709.45000126</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1132693.23350126</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1132747.70941054</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1176848.95421054</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1176758.89301054</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1176758.89301054</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1156755.74051054</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1156921.73241054</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1156921.73231054</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1155057.90781054</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1155237.24511054</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1157325.64621054</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1147115.80821054</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1150533.30821054</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1148617.30821054</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1148699.54961054</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1148692.24961054</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1148692.24961054</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1150834.44131054</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1150834.44131054</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1156465.60701054</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1210484.00151153</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1322578.69431153</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1349092.67871153</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1348984.08501153</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1341169.18811153</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1321169.18811153</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1311416.07801153</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1312577.45641153</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1313022.45641153</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1313022.45641153</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1313614.75951153</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1313295.55951153</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1313295.55951153</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1312202.30201153</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1313236.30201153</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1314914.30201153</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1317486.61541153</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1316647.61551153</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1317670.34271153</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1302910.32551153</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1303749.32541153</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1300510.49741153</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1303844.16841153</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1335444.16841153</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1284721.99491153</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1285326.81211153</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1285126.81211153</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1284893.81211153</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1284992.74073466</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1340424.73443466</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1336480.73443466</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1345813.33103466</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1344361.95223466</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1345517.95223466</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1346587.95223466</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1336587.95223466</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1336527.67973466</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1306088.67973466</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1310401.67973466</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1273864.67973466</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1273719.52073466</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1290157.73233466</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1290149.73233466</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1291170.31453466</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1289028.79093466</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1291290.10363466</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1287664.28773466</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1287708.28383466</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1212704.27613466</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1215669.37463466</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1213282.37463466</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1216719.25483466</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1206507.40433466</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1206499.40433466</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1207948.10584016</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1208406.10584016</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1209887.32414016</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1209887.32414016</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1248592.44024016</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1240326.74024016</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1241020.74024016</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1270320.74024016</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1270320.74024016</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1271634.34024016</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1271634.34024016</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1732279.630640161</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-376625.29650478</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-413598.29650478</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-413388.50500478</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-426990.7166047799</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-426996.5890047799</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-427556.11770478</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-437680.92710478</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-446242.39420478</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-491316.53520478</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-449728.59790478</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-453029.50450478</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-454923.47010478</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-454233.80330478</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-454233.80330478</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-455241.50330478</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-455241.50330478</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-466109.20660478</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-466244.73400478</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-416380.73400478</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-580384.7457658199</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-580384.7457658199</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-580340.2426658199</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-581587.3914658199</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-581173.1825658199</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-581173.1825658199</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-582623.9543658199</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-601148.3986658199</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-629239.9794658199</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-629239.9794658199</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-631316.4581658199</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-631316.4581658199</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-631393.3670658199</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-631331.19426582</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-640013.53066582</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-640013.53066582</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-520062.53066582</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-516825.90816582</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-545211.44346582</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-587314.13426582</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-587314.13426582</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-593229.86811705</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-594547.86811705</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-597199.0353170501</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-597199.0353170501</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-597437.9190170501</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-385340.5457170501</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-419686.0042170502</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-379923.8417170502</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-286825.8576170502</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-400549.6090170502</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-469013.7146170502</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-544010.3327170502</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-509599.7887053302</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-516367.1187053302</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-514292.0423053302</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-539907.3138053302</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-651152.5613053301</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1172783.70821948</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1175234.05471948</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1154256.99490126</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1153690.99490126</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1130599.57930126</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1127782.172301261</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1127957.002201261</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1119601.660201261</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1121757.220601261</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1103286.093601261</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1108953.563601261</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1102911.019401261</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1104170.019401261</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1120992.620401261</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1107435.120401261</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1129411.783001261</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1128902.114401261</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1157668.762201261</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1147888.18220126</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1150308.65300126</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1151300.206401261</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1100148.304001261</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1105122.896801261</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1127378.119801261</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1132709.45000126</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1132693.23350126</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1132747.70941054</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1176848.95421054</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1176758.89301054</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1176758.89301054</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1156755.74051054</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1156921.73241054</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1156921.73231054</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1155057.90781054</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1155237.24511054</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1157325.64621054</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1147115.80821054</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1150533.30821054</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1148617.30821054</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1148699.54961054</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1148692.24961054</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1148692.24961054</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1150834.44131054</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1150834.44131054</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1156465.60701054</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1210484.00151153</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1322578.69431153</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1349092.67871153</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1348984.08501153</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1341169.18811153</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1321169.18811153</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1311416.07801153</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1312577.45641153</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1313022.45641153</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1313022.45641153</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1313614.75951153</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1313295.55951153</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1313295.55951153</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1312202.30201153</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1313236.30201153</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1314914.30201153</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1317486.61541153</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1316647.61551153</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1317670.34271153</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1302910.32551153</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1303749.32541153</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1300510.49741153</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1303844.16841153</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1335444.16841153</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1284721.99491153</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1285326.81211153</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1285126.81211153</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1284893.81211153</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1284992.74073466</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1340424.73443466</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1336480.73443466</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1345813.33103466</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1344361.95223466</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1345517.95223466</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1346587.95223466</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1336587.95223466</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1336527.67973466</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1306088.67973466</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1310401.67973466</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1273864.67973466</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1273719.52073466</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1286948.38913466</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1290157.73233466</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1290149.73233466</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1291170.31453466</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1289028.79093466</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1291290.10363466</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1287664.28773466</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1287708.28383466</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1212704.27613466</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1215669.37463466</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1213282.37463466</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1216719.25483466</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1206507.40433466</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1206499.40433466</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1207948.10584016</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1208406.10584016</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1209887.32414016</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1209887.32414016</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1248592.44024016</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1240326.74024016</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1241020.74024016</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1270320.74024016</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1270320.74024016</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1271634.34024016</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1271634.34024016</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1732279.630640161</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1732346.630640161</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
